--- a/JoomProject/src/test/resources/TestScriptData/CategoryFields.xlsx
+++ b/JoomProject/src/test/resources/TestScriptData/CategoryFields.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\git\repository16\com.joom.automation1\src\test\resources\TestScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\git\JoomProjectFramework\JoomProject\src\test\resources\TestScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D23C9BD-3CC5-40F1-8925-D9CDA1CD5DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C151AA1C-D68E-4E2D-8EF7-C34AA94AD294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Category</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Yes1234</t>
   </si>
   <si>
-    <t>806543214</t>
-  </si>
-  <si>
     <t>avp</t>
   </si>
   <si>
@@ -166,6 +163,12 @@
   </si>
   <si>
     <t>Touchscreen devices larger than smartphones, ideal for media and productivity.</t>
+  </si>
+  <si>
+    <t>iop</t>
+  </si>
+  <si>
+    <t>8065432147</t>
   </si>
 </sst>
 </file>
@@ -513,93 +516,93 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
         <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J4" t="s">
         <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -620,22 +623,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCF0295-3F1F-41C1-95AA-0902DFC371CD}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
@@ -655,22 +658,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -682,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8CD7F6-6B00-4B71-B3AF-804A83E6A926}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,13 +739,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -753,27 +756,36 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
+      <c r="C5">
+        <v>907654</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
